--- a/shifts_availability.xlsx
+++ b/shifts_availability.xlsx
@@ -14,117 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="41">
+  <si>
+    <t>זמר</t>
+  </si>
+  <si>
+    <t>נוייה</t>
+  </si>
+  <si>
+    <t>אוהד</t>
+  </si>
+  <si>
+    <t>ליאור</t>
+  </si>
+  <si>
+    <t>כפיר</t>
+  </si>
+  <si>
+    <t>רוני</t>
+  </si>
+  <si>
+    <t>יהושע</t>
+  </si>
+  <si>
+    <t>עמית</t>
+  </si>
+  <si>
+    <t>שילת</t>
+  </si>
+  <si>
+    <t>לורן</t>
+  </si>
+  <si>
+    <t>רוי</t>
+  </si>
+  <si>
+    <t>ירין</t>
+  </si>
   <si>
     <t>אייל</t>
   </si>
   <si>
-    <t>לורן</t>
-  </si>
-  <si>
-    <t>רוי</t>
-  </si>
-  <si>
-    <t>עמית</t>
-  </si>
-  <si>
-    <t>זמר</t>
-  </si>
-  <si>
-    <t>נוייה</t>
-  </si>
-  <si>
-    <t>אליה</t>
-  </si>
-  <si>
-    <t>אגם</t>
-  </si>
-  <si>
-    <t>רועי</t>
-  </si>
-  <si>
-    <t>14.7 Day Shift</t>
-  </si>
-  <si>
-    <t>14.7 Night Shift</t>
-  </si>
-  <si>
-    <t>15.7 Day Shift</t>
-  </si>
-  <si>
-    <t>15.7 Night Shift</t>
-  </si>
-  <si>
-    <t>16.7 Day Shift</t>
-  </si>
-  <si>
-    <t>16.7 Night Shift</t>
-  </si>
-  <si>
-    <t>17.7 Day Shift</t>
-  </si>
-  <si>
-    <t>17.7 Night Shift</t>
-  </si>
-  <si>
-    <t>18.7 Day Shift</t>
-  </si>
-  <si>
-    <t>18.7 Night Shift</t>
-  </si>
-  <si>
-    <t>19.7 Day Shift</t>
-  </si>
-  <si>
-    <t>19.7 Night Shift</t>
-  </si>
-  <si>
-    <t>20.7 Day Shift</t>
-  </si>
-  <si>
-    <t>20.7 Night Shift</t>
-  </si>
-  <si>
-    <t>21.7 Day Shift</t>
-  </si>
-  <si>
-    <t>21.7 Night Shift</t>
-  </si>
-  <si>
-    <t>22.7 Day Shift</t>
-  </si>
-  <si>
-    <t>22.7 Night Shift</t>
-  </si>
-  <si>
-    <t>23.7 Day Shift</t>
-  </si>
-  <si>
-    <t>23.7 Night Shift</t>
-  </si>
-  <si>
-    <t>24.7 Day Shift</t>
-  </si>
-  <si>
-    <t>24.7 Night Shift</t>
-  </si>
-  <si>
-    <t>25.7 Day Shift</t>
-  </si>
-  <si>
-    <t>25.7 Night Shift</t>
-  </si>
-  <si>
-    <t>26.7 Day Shift</t>
-  </si>
-  <si>
-    <t>26.7 Night Shift</t>
-  </si>
-  <si>
-    <t>27.7 Day Shift</t>
-  </si>
-  <si>
-    <t>27.7 Night Shift</t>
+    <t>6.4 Day Shift</t>
+  </si>
+  <si>
+    <t>6.4 Night Shift</t>
+  </si>
+  <si>
+    <t>7.4 Day Shift</t>
+  </si>
+  <si>
+    <t>7.4 Night Shift</t>
+  </si>
+  <si>
+    <t>8.4 Day Shift</t>
+  </si>
+  <si>
+    <t>8.4 Night Shift</t>
+  </si>
+  <si>
+    <t>9.4 Day Shift</t>
+  </si>
+  <si>
+    <t>9.4 Night Shift</t>
+  </si>
+  <si>
+    <t>10.4 Day Shift</t>
+  </si>
+  <si>
+    <t>10.4 Night Shift</t>
+  </si>
+  <si>
+    <t>11.4 Day Shift</t>
+  </si>
+  <si>
+    <t>11.4 Night Shift</t>
+  </si>
+  <si>
+    <t>12.4 Day Shift</t>
+  </si>
+  <si>
+    <t>12.4 Night Shift</t>
+  </si>
+  <si>
+    <t>13.4 Day Shift</t>
+  </si>
+  <si>
+    <t>13.4 Night Shift</t>
+  </si>
+  <si>
+    <t>14.4 Day Shift</t>
+  </si>
+  <si>
+    <t>14.4 Night Shift</t>
+  </si>
+  <si>
+    <t>15.4 Day Shift</t>
+  </si>
+  <si>
+    <t>15.4 Night Shift</t>
+  </si>
+  <si>
+    <t>16.4 Day Shift</t>
+  </si>
+  <si>
+    <t>16.4 Night Shift</t>
+  </si>
+  <si>
+    <t>17.4 Day Shift</t>
+  </si>
+  <si>
+    <t>17.4 Night Shift</t>
+  </si>
+  <si>
+    <t>18.4 Day Shift</t>
+  </si>
+  <si>
+    <t>18.4 Night Shift</t>
+  </si>
+  <si>
+    <t>19.4 Day Shift</t>
+  </si>
+  <si>
+    <t>19.4 Night Shift</t>
   </si>
 </sst>
 </file>
@@ -482,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,10 +528,25 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -527,25 +554,31 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -553,68 +586,92 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
+      <c r="D4" t="s">
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
+      <c r="G4" t="s">
+        <v>5</v>
       </c>
       <c r="J4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
+      <c r="D5" t="s">
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
+      <c r="G5" t="s">
+        <v>5</v>
       </c>
       <c r="J5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -622,25 +679,31 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
       <c r="E6" t="s">
         <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
       <c r="H6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
       <c r="J6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -648,32 +711,50 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
       <c r="H7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
       <c r="J7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
       <c r="F8" t="s">
         <v>4</v>
       </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
       <c r="H8" t="s">
         <v>6</v>
       </c>
@@ -683,10 +764,22 @@
       <c r="J8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -703,6 +796,9 @@
       <c r="F9" t="s">
         <v>4</v>
       </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
       <c r="H9" t="s">
         <v>6</v>
       </c>
@@ -712,10 +808,22 @@
       <c r="J9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -723,17 +831,14 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
-        <v>6</v>
+      <c r="G10" t="s">
+        <v>5</v>
       </c>
       <c r="I10" t="s">
         <v>7</v>
@@ -741,10 +846,22 @@
       <c r="J10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -752,14 +869,14 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
+      <c r="E11" t="s">
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="H11" t="s">
-        <v>6</v>
+      <c r="G11" t="s">
+        <v>5</v>
       </c>
       <c r="I11" t="s">
         <v>7</v>
@@ -767,48 +884,69 @@
       <c r="J11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" t="s">
-        <v>4</v>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" t="s">
-        <v>7</v>
-      </c>
       <c r="J12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="F13" t="s">
-        <v>4</v>
+      <c r="G13" t="s">
+        <v>5</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
@@ -819,39 +957,36 @@
       <c r="J13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -862,37 +997,22 @@
       <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
       <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="H16" t="s">
-        <v>6</v>
+      <c r="G16" t="s">
+        <v>5</v>
       </c>
       <c r="I16" t="s">
         <v>7</v>
@@ -901,27 +1021,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
       <c r="F17" t="s">
         <v>4</v>
       </c>
-      <c r="H17" t="s">
-        <v>6</v>
+      <c r="G17" t="s">
+        <v>5</v>
       </c>
       <c r="I17" t="s">
         <v>7</v>
@@ -929,17 +1043,29 @@
       <c r="J17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
       <c r="F18" t="s">
         <v>4</v>
       </c>
@@ -952,10 +1078,16 @@
       <c r="J18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -966,9 +1098,6 @@
       <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
       <c r="F19" t="s">
         <v>4</v>
       </c>
@@ -981,10 +1110,16 @@
       <c r="J19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1001,6 +1136,9 @@
       <c r="F20" t="s">
         <v>4</v>
       </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
       <c r="H20" t="s">
         <v>6</v>
       </c>
@@ -1010,10 +1148,22 @@
       <c r="J20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -1030,6 +1180,9 @@
       <c r="F21" t="s">
         <v>4</v>
       </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
       <c r="H21" t="s">
         <v>6</v>
       </c>
@@ -1039,10 +1192,19 @@
       <c r="J21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1059,13 +1221,31 @@
       <c r="F22" t="s">
         <v>4</v>
       </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
       <c r="I22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="J22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -1076,16 +1256,37 @@
       <c r="D23" t="s">
         <v>2</v>
       </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
       <c r="F23" t="s">
         <v>4</v>
       </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>6</v>
+      </c>
       <c r="I23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -1093,19 +1294,37 @@
       <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>2</v>
+      <c r="E24" t="s">
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
       </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
       <c r="I24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -1113,19 +1332,37 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
       <c r="E25" t="s">
         <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
@@ -1136,10 +1373,28 @@
       <c r="F26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -1153,17 +1408,29 @@
       <c r="F27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
@@ -1173,17 +1440,26 @@
       <c r="F28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
       <c r="D29" t="s">
         <v>2</v>
       </c>
@@ -1192,6 +1468,21 @@
       </c>
       <c r="F29" t="s">
         <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
